--- a/public/model.xlsx
+++ b/public/model.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin\Documents\inventory-manager\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71EB7E2C-AE81-4442-9EC0-469760F63142}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01C5B53E-34FC-4BA5-BE5E-100D0785A33E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="203">
   <si>
     <t>9S7-17K711-032</t>
   </si>
@@ -424,6 +424,216 @@
   </si>
   <si>
     <t>2024/8/23 上午 06:24:09</t>
+  </si>
+  <si>
+    <t>DBE1-24614008-1</t>
+  </si>
+  <si>
+    <t>K2310N0033871</t>
+  </si>
+  <si>
+    <t>9S715HK12097ZNA000164</t>
+  </si>
+  <si>
+    <t>9S7-15HK12-097</t>
+  </si>
+  <si>
+    <t>2024/7/9 上午 01:41:58</t>
+  </si>
+  <si>
+    <t>K2309N0213639</t>
+  </si>
+  <si>
+    <t>9S715HK12097ZN9000002</t>
+  </si>
+  <si>
+    <t>2024/6/26 下午 11:18:21</t>
+  </si>
+  <si>
+    <t>DBE1-24923001-1</t>
+  </si>
+  <si>
+    <t>K2310N0069824</t>
+  </si>
+  <si>
+    <t>9S715HK12097ZNA000182</t>
+  </si>
+  <si>
+    <t>2024/10/16 上午 03:51:47</t>
+  </si>
+  <si>
+    <t>K2310N0069874</t>
+  </si>
+  <si>
+    <t>9S715HK12097ZNA000233</t>
+  </si>
+  <si>
+    <t>2024/12/20 上午 08:36:22</t>
+  </si>
+  <si>
+    <t>DBE1-24808022-1</t>
+  </si>
+  <si>
+    <t>K2310N0069873</t>
+  </si>
+  <si>
+    <t>9S715HK12097ZNA000232</t>
+  </si>
+  <si>
+    <t>2024/8/23 上午 06:24:40</t>
+  </si>
+  <si>
+    <t>DBE1-24923002-1</t>
+  </si>
+  <si>
+    <t>K2310N0069879</t>
+  </si>
+  <si>
+    <t>9S715HK12097ZNA000238</t>
+  </si>
+  <si>
+    <t>2024/10/16 上午 03:52:54</t>
+  </si>
+  <si>
+    <t>DBE1-24A09005-1</t>
+  </si>
+  <si>
+    <t>K2310N0069832</t>
+  </si>
+  <si>
+    <t>9S715HK12097ZNA000190</t>
+  </si>
+  <si>
+    <t>2024/11/13 上午 08:03:30</t>
+  </si>
+  <si>
+    <t>DBE1-24828008-1</t>
+  </si>
+  <si>
+    <t>K2310N0069864</t>
+  </si>
+  <si>
+    <t>9S715HK12097ZNA000223</t>
+  </si>
+  <si>
+    <t>2024/9/14 上午 04:06:38</t>
+  </si>
+  <si>
+    <t>DBE1-24902001-1</t>
+  </si>
+  <si>
+    <t>K2310N0033850</t>
+  </si>
+  <si>
+    <t>9S715HK12097ZNA000143</t>
+  </si>
+  <si>
+    <t>2024/9/14 上午 04:07:40</t>
+  </si>
+  <si>
+    <t>K2310N0069858</t>
+  </si>
+  <si>
+    <t>9S715HK12097ZNA000217</t>
+  </si>
+  <si>
+    <t>2024/8/23 上午 06:24:39</t>
+  </si>
+  <si>
+    <t>DBE1-24614010-1</t>
+  </si>
+  <si>
+    <t>K2310N0033885</t>
+  </si>
+  <si>
+    <t>9S715HK12097ZNA000179</t>
+  </si>
+  <si>
+    <t>2024/7/9 上午 01:43:29</t>
+  </si>
+  <si>
+    <t>K2310N0069868</t>
+  </si>
+  <si>
+    <t>9S715HK12097ZNA000227</t>
+  </si>
+  <si>
+    <t>2024/10/16 上午 03:51:48</t>
+  </si>
+  <si>
+    <t>DBE1-24A30006-1</t>
+  </si>
+  <si>
+    <t>K2310N0069837</t>
+  </si>
+  <si>
+    <t>9S715HK12097ZNA000195</t>
+  </si>
+  <si>
+    <t>2024/11/13 上午 08:08:57</t>
+  </si>
+  <si>
+    <t>K2310N0069881</t>
+  </si>
+  <si>
+    <t>9S715HK12097ZNA000240</t>
+  </si>
+  <si>
+    <t>2024/9/14 上午 04:07:41</t>
+  </si>
+  <si>
+    <t>DBE1-24C26001-1</t>
+  </si>
+  <si>
+    <t>K2405N0150297</t>
+  </si>
+  <si>
+    <t>9S715H551064ZR6001133</t>
+  </si>
+  <si>
+    <t>9S7-15H551-064</t>
+  </si>
+  <si>
+    <t>Buffer-NG</t>
+  </si>
+  <si>
+    <t>hedypeng</t>
+  </si>
+  <si>
+    <t>2025/1/17 上午 11:50:51</t>
+  </si>
+  <si>
+    <t>DBE1-24B28006-1</t>
+  </si>
+  <si>
+    <t>K2405N0150045</t>
+  </si>
+  <si>
+    <t>9S715H551064ZR6000943</t>
+  </si>
+  <si>
+    <t>2024/12/20 上午 08:37:11</t>
+  </si>
+  <si>
+    <t>K2405N0150116</t>
+  </si>
+  <si>
+    <t>9S715H551064ZR6001014</t>
+  </si>
+  <si>
+    <t>2024/12/20 上午 08:37:10</t>
+  </si>
+  <si>
+    <t>K2302N0035499</t>
+  </si>
+  <si>
+    <t>9S717L531221ZN2000098</t>
+  </si>
+  <si>
+    <t>9S7-17L531-221</t>
+  </si>
+  <si>
+    <t>2024/8/23 上午 06:25:16</t>
   </si>
 </sst>
 </file>
@@ -821,10 +1031,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U42"/>
+  <dimension ref="A1:U60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A60" sqref="A60:U60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2946,6 +3156,888 @@
       <c r="S42" s="3"/>
       <c r="T42" s="3"/>
       <c r="U42" s="3"/>
+    </row>
+    <row r="43" spans="1:21" ht="50.4" x14ac:dyDescent="0.3">
+      <c r="A43" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H43" s="4">
+        <v>45470.486805555556</v>
+      </c>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+      <c r="K43" s="3"/>
+      <c r="L43" s="3"/>
+      <c r="M43" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N43" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O43" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P43" s="3">
+        <v>242</v>
+      </c>
+      <c r="Q43" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="R43" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S43" s="3"/>
+      <c r="T43" s="3"/>
+      <c r="U43" s="3"/>
+    </row>
+    <row r="44" spans="1:21" ht="50.4" x14ac:dyDescent="0.3">
+      <c r="A44" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H44" s="6">
+        <v>45460.45416666667</v>
+      </c>
+      <c r="I44" s="5"/>
+      <c r="J44" s="5"/>
+      <c r="K44" s="5"/>
+      <c r="L44" s="5"/>
+      <c r="M44" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="N44" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="O44" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="P44" s="5">
+        <v>254</v>
+      </c>
+      <c r="Q44" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="R44" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="S44" s="5"/>
+      <c r="T44" s="5"/>
+      <c r="U44" s="5"/>
+    </row>
+    <row r="45" spans="1:21" ht="63" x14ac:dyDescent="0.3">
+      <c r="A45" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H45" s="4">
+        <v>45573.463888888888</v>
+      </c>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
+      <c r="L45" s="3"/>
+      <c r="M45" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O45" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P45" s="3">
+        <v>142</v>
+      </c>
+      <c r="Q45" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="R45" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S45" s="3"/>
+      <c r="T45" s="3"/>
+      <c r="U45" s="3"/>
+    </row>
+    <row r="46" spans="1:21" ht="63" x14ac:dyDescent="0.3">
+      <c r="A46" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H46" s="6">
+        <v>45636.579861111109</v>
+      </c>
+      <c r="I46" s="5"/>
+      <c r="J46" s="5"/>
+      <c r="K46" s="5"/>
+      <c r="L46" s="5"/>
+      <c r="M46" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="N46" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="O46" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="P46" s="5">
+        <v>76</v>
+      </c>
+      <c r="Q46" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="R46" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="S46" s="5"/>
+      <c r="T46" s="5"/>
+      <c r="U46" s="5"/>
+    </row>
+    <row r="47" spans="1:21" ht="50.4" x14ac:dyDescent="0.3">
+      <c r="A47" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H47" s="4">
+        <v>45518.460416666669</v>
+      </c>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
+      <c r="K47" s="3"/>
+      <c r="L47" s="3"/>
+      <c r="M47" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N47" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O47" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P47" s="3">
+        <v>194</v>
+      </c>
+      <c r="Q47" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="R47" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S47" s="3"/>
+      <c r="T47" s="3"/>
+      <c r="U47" s="3"/>
+    </row>
+    <row r="48" spans="1:21" ht="63" x14ac:dyDescent="0.3">
+      <c r="A48" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H48" s="6">
+        <v>45566.398611111108</v>
+      </c>
+      <c r="I48" s="5"/>
+      <c r="J48" s="5"/>
+      <c r="K48" s="5"/>
+      <c r="L48" s="5"/>
+      <c r="M48" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="N48" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="O48" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="P48" s="5">
+        <v>150</v>
+      </c>
+      <c r="Q48" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="R48" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="S48" s="5"/>
+      <c r="T48" s="5"/>
+      <c r="U48" s="5"/>
+    </row>
+    <row r="49" spans="1:21" ht="63" x14ac:dyDescent="0.3">
+      <c r="A49" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H49" s="4">
+        <v>45587.492361111108</v>
+      </c>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3"/>
+      <c r="L49" s="3"/>
+      <c r="M49" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N49" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O49" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P49" s="3">
+        <v>125</v>
+      </c>
+      <c r="Q49" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="R49" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S49" s="3"/>
+      <c r="T49" s="3"/>
+      <c r="U49" s="3"/>
+    </row>
+    <row r="50" spans="1:21" ht="50.4" x14ac:dyDescent="0.3">
+      <c r="A50" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H50" s="6">
+        <v>45539.45208333333</v>
+      </c>
+      <c r="I50" s="5"/>
+      <c r="J50" s="5"/>
+      <c r="K50" s="5"/>
+      <c r="L50" s="5"/>
+      <c r="M50" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="N50" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="O50" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="P50" s="5">
+        <v>173</v>
+      </c>
+      <c r="Q50" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="R50" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="S50" s="5"/>
+      <c r="T50" s="5"/>
+      <c r="U50" s="5"/>
+    </row>
+    <row r="51" spans="1:21" ht="50.4" x14ac:dyDescent="0.3">
+      <c r="A51" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H51" s="4">
+        <v>45546.470138888886</v>
+      </c>
+      <c r="I51" s="3"/>
+      <c r="J51" s="3"/>
+      <c r="K51" s="3"/>
+      <c r="L51" s="3"/>
+      <c r="M51" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N51" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O51" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P51" s="3">
+        <v>167</v>
+      </c>
+      <c r="Q51" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="R51" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S51" s="3"/>
+      <c r="T51" s="3"/>
+      <c r="U51" s="3"/>
+    </row>
+    <row r="52" spans="1:21" ht="50.4" x14ac:dyDescent="0.3">
+      <c r="A52" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H52" s="6">
+        <v>45518.460416666669</v>
+      </c>
+      <c r="I52" s="5"/>
+      <c r="J52" s="5"/>
+      <c r="K52" s="5"/>
+      <c r="L52" s="5"/>
+      <c r="M52" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="N52" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="O52" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="P52" s="5">
+        <v>194</v>
+      </c>
+      <c r="Q52" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="R52" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="S52" s="5"/>
+      <c r="T52" s="5"/>
+      <c r="U52" s="5"/>
+    </row>
+    <row r="53" spans="1:21" ht="50.4" x14ac:dyDescent="0.3">
+      <c r="A53" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H53" s="4">
+        <v>45470.481249999997</v>
+      </c>
+      <c r="I53" s="3"/>
+      <c r="J53" s="3"/>
+      <c r="K53" s="3"/>
+      <c r="L53" s="3"/>
+      <c r="M53" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N53" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O53" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P53" s="3">
+        <v>242</v>
+      </c>
+      <c r="Q53" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="R53" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S53" s="3"/>
+      <c r="T53" s="3"/>
+      <c r="U53" s="3"/>
+    </row>
+    <row r="54" spans="1:21" ht="63" x14ac:dyDescent="0.3">
+      <c r="A54" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H54" s="6">
+        <v>45573.463888888888</v>
+      </c>
+      <c r="I54" s="5"/>
+      <c r="J54" s="5"/>
+      <c r="K54" s="5"/>
+      <c r="L54" s="5"/>
+      <c r="M54" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="N54" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="O54" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="P54" s="5">
+        <v>142</v>
+      </c>
+      <c r="Q54" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="R54" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="S54" s="5"/>
+      <c r="T54" s="5"/>
+      <c r="U54" s="5"/>
+    </row>
+    <row r="55" spans="1:21" ht="63" x14ac:dyDescent="0.3">
+      <c r="A55" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H55" s="4">
+        <v>45602.411111111112</v>
+      </c>
+      <c r="I55" s="3"/>
+      <c r="J55" s="3"/>
+      <c r="K55" s="3"/>
+      <c r="L55" s="3"/>
+      <c r="M55" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N55" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O55" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P55" s="3">
+        <v>111</v>
+      </c>
+      <c r="Q55" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="R55" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S55" s="3"/>
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="1:21" ht="50.4" x14ac:dyDescent="0.3">
+      <c r="A56" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="F56" s="5"/>
+      <c r="G56" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H56" s="6">
+        <v>45546.470138888886</v>
+      </c>
+      <c r="I56" s="5"/>
+      <c r="J56" s="5"/>
+      <c r="K56" s="5"/>
+      <c r="L56" s="5"/>
+      <c r="M56" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="N56" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="O56" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="P56" s="5">
+        <v>167</v>
+      </c>
+      <c r="Q56" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="R56" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="S56" s="5"/>
+      <c r="T56" s="5"/>
+      <c r="U56" s="5"/>
+    </row>
+    <row r="57" spans="1:21" ht="50.4" x14ac:dyDescent="0.3">
+      <c r="A57" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="H57" s="4">
+        <v>45670.709722222222</v>
+      </c>
+      <c r="I57" s="3"/>
+      <c r="J57" s="3"/>
+      <c r="K57" s="3"/>
+      <c r="L57" s="3"/>
+      <c r="M57" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="N57" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O57" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P57" s="3">
+        <v>46</v>
+      </c>
+      <c r="Q57" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="R57" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S57" s="3"/>
+      <c r="T57" s="3"/>
+      <c r="U57" s="3"/>
+    </row>
+    <row r="58" spans="1:21" ht="63" x14ac:dyDescent="0.3">
+      <c r="A58" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H58" s="4">
+        <v>45636.488888888889</v>
+      </c>
+      <c r="I58" s="3"/>
+      <c r="J58" s="3"/>
+      <c r="K58" s="3"/>
+      <c r="L58" s="3"/>
+      <c r="M58" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O58" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P58" s="3">
+        <v>76</v>
+      </c>
+      <c r="Q58" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="R58" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S58" s="3"/>
+      <c r="T58" s="3"/>
+      <c r="U58" s="3"/>
+    </row>
+    <row r="59" spans="1:21" ht="63" x14ac:dyDescent="0.3">
+      <c r="A59" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="F59" s="5"/>
+      <c r="G59" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H59" s="6">
+        <v>45636.488888888889</v>
+      </c>
+      <c r="I59" s="5"/>
+      <c r="J59" s="5"/>
+      <c r="K59" s="5"/>
+      <c r="L59" s="5"/>
+      <c r="M59" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="N59" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="O59" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="P59" s="5">
+        <v>76</v>
+      </c>
+      <c r="Q59" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="R59" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="S59" s="5"/>
+      <c r="T59" s="5"/>
+      <c r="U59" s="5"/>
+    </row>
+    <row r="60" spans="1:21" ht="50.4" x14ac:dyDescent="0.3">
+      <c r="A60" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H60" s="4">
+        <v>45524.624305555553</v>
+      </c>
+      <c r="I60" s="3"/>
+      <c r="J60" s="3"/>
+      <c r="K60" s="3"/>
+      <c r="L60" s="3"/>
+      <c r="M60" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N60" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O60" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P60" s="3">
+        <v>188</v>
+      </c>
+      <c r="Q60" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="R60" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S60" s="3"/>
+      <c r="T60" s="3"/>
+      <c r="U60" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/public/model.xlsx
+++ b/public/model.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin\Documents\inventory-manager\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01C5B53E-34FC-4BA5-BE5E-100D0785A33E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1DED38A-5143-4E5E-AC96-32F3A13D4C2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="212">
   <si>
     <t>9S7-17K711-032</t>
   </si>
@@ -634,6 +634,33 @@
   </si>
   <si>
     <t>2024/8/23 上午 06:25:16</t>
+  </si>
+  <si>
+    <t>DBE1-24523003-1</t>
+  </si>
+  <si>
+    <t>K2304N0114477</t>
+  </si>
+  <si>
+    <t>9S717S122235ZN4000114</t>
+  </si>
+  <si>
+    <t>9S7-17S122-235</t>
+  </si>
+  <si>
+    <t>2024/6/26 下午 11:16:23</t>
+  </si>
+  <si>
+    <t>K2304N0141092</t>
+  </si>
+  <si>
+    <t>9S7158N11077ZN5000067</t>
+  </si>
+  <si>
+    <t>9S7-158N11-077</t>
+  </si>
+  <si>
+    <t>2024/6/26 下午 11:16:16</t>
   </si>
 </sst>
 </file>
@@ -1031,10 +1058,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U60"/>
+  <dimension ref="A1:U62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A60" sqref="A60:U60"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62:U62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4038,6 +4065,104 @@
       <c r="S60" s="3"/>
       <c r="T60" s="3"/>
       <c r="U60" s="3"/>
+    </row>
+    <row r="61" spans="1:21" ht="50.4" x14ac:dyDescent="0.3">
+      <c r="A61" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H61" s="4">
+        <v>45456.443749999999</v>
+      </c>
+      <c r="I61" s="3"/>
+      <c r="J61" s="3"/>
+      <c r="K61" s="3"/>
+      <c r="L61" s="3"/>
+      <c r="M61" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N61" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O61" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P61" s="3">
+        <v>257</v>
+      </c>
+      <c r="Q61" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="R61" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S61" s="3"/>
+      <c r="T61" s="3"/>
+      <c r="U61" s="3"/>
+    </row>
+    <row r="62" spans="1:21" ht="50.4" x14ac:dyDescent="0.3">
+      <c r="A62" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H62" s="4">
+        <v>45456.443055555559</v>
+      </c>
+      <c r="I62" s="3"/>
+      <c r="J62" s="3"/>
+      <c r="K62" s="3"/>
+      <c r="L62" s="3"/>
+      <c r="M62" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N62" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O62" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P62" s="3">
+        <v>257</v>
+      </c>
+      <c r="Q62" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="R62" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S62" s="3"/>
+      <c r="T62" s="3"/>
+      <c r="U62" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
